--- a/Mockup.xlsx
+++ b/Mockup.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://azureford-my.sharepoint.com/personal/pgetar_ford_com/Documents/Documents/00 - Python/Self/Projeto Envio Mensagens Completo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubPersonal\SendWhatsAppMessages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{F4D15A3D-624A-4A9D-8C43-0DC56F21970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB341999-AB17-4AEC-A2C1-0FD606FB0690}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EA6FF-A8EB-4496-816A-CDEC488DA219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,20 +655,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,11 +1034,11 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -1046,18 +1046,18 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>180</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1066,42 +1066,42 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="J4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1114,9 +1114,9 @@
       <c r="D8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1129,32 +1129,32 @@
       <c r="D9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>181</v>
@@ -1164,11 +1164,11 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -1184,16 +1184,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="G3:G10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1204,9 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B059C-E4AB-41A3-8E98-2E0E4A5A6054}">
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1299,10 +1297,7 @@
       <c r="B8" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Ana Luisa</v>
-      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1311,10 +1306,7 @@
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Ana Mercia</v>
-      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1341,10 +1333,7 @@
       <c r="B12" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Ana Rosa</v>
-      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1353,10 +1342,7 @@
       <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Anailza Meireles</v>
-      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1365,10 +1351,7 @@
       <c r="B14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Anamaria Romio</v>
-      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1377,10 +1360,7 @@
       <c r="B15" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Andre</v>
-      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1389,10 +1369,7 @@
       <c r="B16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para André Coêlho</v>
-      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1410,10 +1387,7 @@
       <c r="B18" t="s">
         <v>173</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Andreia</v>
-      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1431,10 +1405,7 @@
       <c r="B20" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Aninha Junqueira</v>
-      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1452,10 +1423,7 @@
       <c r="B22" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Beatriz Bea</v>
-      </c>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1464,10 +1432,7 @@
       <c r="B23" t="s">
         <v>173</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Beatriz Financeiro</v>
-      </c>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1476,10 +1441,7 @@
       <c r="B24" t="s">
         <v>173</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Brena</v>
-      </c>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1497,10 +1459,7 @@
       <c r="B26" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">Mensagem de Teste para Carla Galo </v>
-      </c>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1518,10 +1477,7 @@
       <c r="B28" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Casa Mainha</v>
-      </c>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1530,10 +1486,7 @@
       <c r="B29" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cecilia</v>
-      </c>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1542,10 +1495,7 @@
       <c r="B30" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Chica</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1554,10 +1504,7 @@
       <c r="B31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cidinho</v>
-      </c>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1575,10 +1522,7 @@
       <c r="B33" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Claudia Santos</v>
-      </c>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -1587,10 +1531,7 @@
       <c r="B34" t="s">
         <v>173</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cleber Costa</v>
-      </c>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1608,10 +1549,7 @@
       <c r="B36" t="s">
         <v>173</v>
       </c>
-      <c r="C36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cleiton</v>
-      </c>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -1620,10 +1558,7 @@
       <c r="B37" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Conça</v>
-      </c>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -1632,10 +1567,7 @@
       <c r="B38" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cristina Avatim</v>
-      </c>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -1644,10 +1576,7 @@
       <c r="B39" t="s">
         <v>173</v>
       </c>
-      <c r="C39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cristina Buraquinho</v>
-      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1665,10 +1594,7 @@
       <c r="B41" t="s">
         <v>173</v>
       </c>
-      <c r="C41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Cristina Prima</v>
-      </c>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1686,10 +1612,7 @@
       <c r="B43" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Dayse</v>
-      </c>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -1698,10 +1621,7 @@
       <c r="B44" t="s">
         <v>173</v>
       </c>
-      <c r="C44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Debora</v>
-      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1710,10 +1630,7 @@
       <c r="B45" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Diego</v>
-      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -1722,10 +1639,7 @@
       <c r="B46" t="s">
         <v>173</v>
       </c>
-      <c r="C46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Dinha</v>
-      </c>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1734,10 +1648,7 @@
       <c r="B47" t="s">
         <v>173</v>
       </c>
-      <c r="C47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Eduardo</v>
-      </c>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -1746,10 +1657,7 @@
       <c r="B48" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Eduardo Pelosi</v>
-      </c>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -1758,10 +1666,7 @@
       <c r="B49" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Edy Mãe</v>
-      </c>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
@@ -1770,10 +1675,7 @@
       <c r="B50" t="s">
         <v>173</v>
       </c>
-      <c r="C50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Eleniza</v>
-      </c>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -1782,10 +1684,7 @@
       <c r="B51" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Eliza</v>
-      </c>
+      <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -1803,10 +1702,7 @@
       <c r="B53" t="s">
         <v>173</v>
       </c>
-      <c r="C53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Erivete Antunes</v>
-      </c>
+      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
@@ -1833,10 +1729,7 @@
       <c r="B56" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Fabricio</v>
-      </c>
+      <c r="C56" s="1"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -1854,10 +1747,7 @@
       <c r="B58" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Flavia Irma De Andreia</v>
-      </c>
+      <c r="C58" s="1"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -1866,10 +1756,7 @@
       <c r="B59" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Flavinha</v>
-      </c>
+      <c r="C59" s="1"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -1878,10 +1765,7 @@
       <c r="B60" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Francisco Mendonça</v>
-      </c>
+      <c r="C60" s="1"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -1890,10 +1774,7 @@
       <c r="B61" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Francislei Barroso</v>
-      </c>
+      <c r="C61" s="1"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -1902,10 +1783,7 @@
       <c r="B62" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Gabi Cookies</v>
-      </c>
+      <c r="C62" s="1"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
@@ -1923,10 +1801,7 @@
       <c r="B64" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Gi</v>
-      </c>
+      <c r="C64" s="1"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -1935,10 +1810,7 @@
       <c r="B65" t="s">
         <v>173</v>
       </c>
-      <c r="C65" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Gil</v>
-      </c>
+      <c r="C65" s="1"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -1947,10 +1819,7 @@
       <c r="B66" t="s">
         <v>173</v>
       </c>
-      <c r="C66" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mensagem de Teste para Gisa</v>
-      </c>
+      <c r="C66" s="1"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -1959,10 +1828,7 @@
       <c r="B67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" s="1" t="str">
-        <f t="shared" ref="C67:C129" si="1">"Mensagem de Teste para "&amp;A67</f>
-        <v>Mensagem de Teste para Grace Kelly</v>
-      </c>
+      <c r="C67" s="1"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
@@ -1989,10 +1855,7 @@
       <c r="B70" t="s">
         <v>173</v>
       </c>
-      <c r="C70" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Heliana</v>
-      </c>
+      <c r="C70" s="1"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -2010,10 +1873,7 @@
       <c r="B72" t="s">
         <v>173</v>
       </c>
-      <c r="C72" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Iris Marques</v>
-      </c>
+      <c r="C72" s="1"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -2022,10 +1882,7 @@
       <c r="B73" t="s">
         <v>173</v>
       </c>
-      <c r="C73" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Mensagem de Teste para Jackie </v>
-      </c>
+      <c r="C73" s="1"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -2034,10 +1891,7 @@
       <c r="B74" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Jarayrama</v>
-      </c>
+      <c r="C74" s="1"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -2046,10 +1900,7 @@
       <c r="B75" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Joao Catavento</v>
-      </c>
+      <c r="C75" s="1"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2067,10 +1918,7 @@
       <c r="B77" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Jorge Cardoso</v>
-      </c>
+      <c r="C77" s="1"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -2079,10 +1927,7 @@
       <c r="B78" t="s">
         <v>173</v>
       </c>
-      <c r="C78" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para José Calafangr</v>
-      </c>
+      <c r="C78" s="1"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -2100,10 +1945,7 @@
       <c r="B80" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Joyse</v>
-      </c>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
@@ -2112,10 +1954,7 @@
       <c r="B81" t="s">
         <v>173</v>
       </c>
-      <c r="C81" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Julia</v>
-      </c>
+      <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
@@ -2124,10 +1963,7 @@
       <c r="B82" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Juliana</v>
-      </c>
+      <c r="C82" s="1"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -2136,10 +1972,7 @@
       <c r="B83" t="s">
         <v>173</v>
       </c>
-      <c r="C83" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Jupira</v>
-      </c>
+      <c r="C83" s="1"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
@@ -2148,10 +1981,7 @@
       <c r="B84" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Jurandir</v>
-      </c>
+      <c r="C84" s="1"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
@@ -2160,10 +1990,7 @@
       <c r="B85" t="s">
         <v>173</v>
       </c>
-      <c r="C85" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Kaliane</v>
-      </c>
+      <c r="C85" s="1"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
@@ -2199,10 +2026,7 @@
       <c r="B89" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Lais Duran</v>
-      </c>
+      <c r="C89" s="1"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -2211,10 +2035,7 @@
       <c r="B90" t="s">
         <v>173</v>
       </c>
-      <c r="C90" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Lara Prates</v>
-      </c>
+      <c r="C90" s="1"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
@@ -2223,10 +2044,7 @@
       <c r="B91" t="s">
         <v>173</v>
       </c>
-      <c r="C91" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Lilian Amiga De Olivia</v>
-      </c>
+      <c r="C91" s="1"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
@@ -2253,10 +2071,7 @@
       <c r="B94" t="s">
         <v>173</v>
       </c>
-      <c r="C94" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Lorena Nunes</v>
-      </c>
+      <c r="C94" s="1"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
@@ -2265,10 +2080,7 @@
       <c r="B95" t="s">
         <v>173</v>
       </c>
-      <c r="C95" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Lorena Ribeiro</v>
-      </c>
+      <c r="C95" s="1"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
@@ -2286,10 +2098,7 @@
       <c r="B97" t="s">
         <v>173</v>
       </c>
-      <c r="C97" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Luciane Morada do Sol</v>
-      </c>
+      <c r="C97" s="1"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -2298,10 +2107,7 @@
       <c r="B98" t="s">
         <v>173</v>
       </c>
-      <c r="C98" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Luisa</v>
-      </c>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -2310,10 +2116,7 @@
       <c r="B99" t="s">
         <v>173</v>
       </c>
-      <c r="C99" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">Mensagem de Teste para Maíra </v>
-      </c>
+      <c r="C99" s="1"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -2331,10 +2134,7 @@
       <c r="B101" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Marcelo Aguetoni</v>
-      </c>
+      <c r="C101" s="1"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -2379,10 +2179,7 @@
       <c r="B106" t="s">
         <v>173</v>
       </c>
-      <c r="C106" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Maria Penteado</v>
-      </c>
+      <c r="C106" s="1"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -2391,10 +2188,7 @@
       <c r="B107" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Mario</v>
-      </c>
+      <c r="C107" s="1"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -2403,10 +2197,7 @@
       <c r="B108" t="s">
         <v>173</v>
       </c>
-      <c r="C108" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Marise</v>
-      </c>
+      <c r="C108" s="1"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -2415,10 +2206,7 @@
       <c r="B109" t="s">
         <v>173</v>
       </c>
-      <c r="C109" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Marquinhos Cunhado</v>
-      </c>
+      <c r="C109" s="1"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -2427,10 +2215,7 @@
       <c r="B110" t="s">
         <v>173</v>
       </c>
-      <c r="C110" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Mauricio Mascarenhas</v>
-      </c>
+      <c r="C110" s="1"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -2439,10 +2224,7 @@
       <c r="B111" t="s">
         <v>173</v>
       </c>
-      <c r="C111" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Moises</v>
-      </c>
+      <c r="C111" s="1"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -2451,10 +2233,7 @@
       <c r="B112" t="s">
         <v>173</v>
       </c>
-      <c r="C112" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Neto E Laiza</v>
-      </c>
+      <c r="C112" s="1"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -2463,10 +2242,7 @@
       <c r="B113" t="s">
         <v>173</v>
       </c>
-      <c r="C113" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Olivia</v>
-      </c>
+      <c r="C113" s="1"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -2475,10 +2251,7 @@
       <c r="B114" t="s">
         <v>173</v>
       </c>
-      <c r="C114" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Osvaldo</v>
-      </c>
+      <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -2487,10 +2260,7 @@
       <c r="B115" t="s">
         <v>173</v>
       </c>
-      <c r="C115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Patricia</v>
-      </c>
+      <c r="C115" s="1"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -2499,10 +2269,7 @@
       <c r="B116" t="s">
         <v>173</v>
       </c>
-      <c r="C116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Patricia Galvão</v>
-      </c>
+      <c r="C116" s="1"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -2511,10 +2278,7 @@
       <c r="B117" t="s">
         <v>173</v>
       </c>
-      <c r="C117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Paulo Carnelos</v>
-      </c>
+      <c r="C117" s="1"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -2523,10 +2287,7 @@
       <c r="B118" t="s">
         <v>173</v>
       </c>
-      <c r="C118" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Raimunda Brito</v>
-      </c>
+      <c r="C118" s="1"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -2535,10 +2296,7 @@
       <c r="B119" t="s">
         <v>173</v>
       </c>
-      <c r="C119" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Regina Cunhada De Alberto</v>
-      </c>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -2547,10 +2305,7 @@
       <c r="B120" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Reinaldo Parras</v>
-      </c>
+      <c r="C120" s="1"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -2559,10 +2314,7 @@
       <c r="B121" t="s">
         <v>173</v>
       </c>
-      <c r="C121" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Renata</v>
-      </c>
+      <c r="C121" s="1"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -2571,10 +2323,7 @@
       <c r="B122" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Renildes</v>
-      </c>
+      <c r="C122" s="1"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -2583,10 +2332,7 @@
       <c r="B123" t="s">
         <v>173</v>
       </c>
-      <c r="C123" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Rhanna</v>
-      </c>
+      <c r="C123" s="1"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -2595,10 +2341,7 @@
       <c r="B124" t="s">
         <v>173</v>
       </c>
-      <c r="C124" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Riane</v>
-      </c>
+      <c r="C124" s="1"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -2616,10 +2359,7 @@
       <c r="B126" t="s">
         <v>173</v>
       </c>
-      <c r="C126" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Rita Amaral</v>
-      </c>
+      <c r="C126" s="1"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -2628,10 +2368,7 @@
       <c r="B127" t="s">
         <v>173</v>
       </c>
-      <c r="C127" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Rod</v>
-      </c>
+      <c r="C127" s="1"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -2640,10 +2377,7 @@
       <c r="B128" t="s">
         <v>173</v>
       </c>
-      <c r="C128" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Rodrigo Leite</v>
-      </c>
+      <c r="C128" s="1"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -2652,10 +2386,7 @@
       <c r="B129" t="s">
         <v>173</v>
       </c>
-      <c r="C129" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Mensagem de Teste para Rosana</v>
-      </c>
+      <c r="C129" s="1"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -2673,10 +2404,7 @@
       <c r="B131" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="1" t="str">
-        <f t="shared" ref="C131:C168" si="2">"Mensagem de Teste para "&amp;A131</f>
-        <v>Mensagem de Teste para Saly</v>
-      </c>
+      <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -2694,10 +2422,7 @@
       <c r="B133" t="s">
         <v>173</v>
       </c>
-      <c r="C133" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve">Mensagem de Teste para Sandra </v>
-      </c>
+      <c r="C133" s="1"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -2724,10 +2449,7 @@
       <c r="B136" t="s">
         <v>173</v>
       </c>
-      <c r="C136" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Sayonara</v>
-      </c>
+      <c r="C136" s="1"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -2736,10 +2458,7 @@
       <c r="B137" t="s">
         <v>173</v>
       </c>
-      <c r="C137" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Sergio</v>
-      </c>
+      <c r="C137" s="1"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -2766,10 +2485,7 @@
       <c r="B140" t="s">
         <v>173</v>
       </c>
-      <c r="C140" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Sonia Cunhada Regina</v>
-      </c>
+      <c r="C140" s="1"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -2796,10 +2512,7 @@
       <c r="B143" t="s">
         <v>173</v>
       </c>
-      <c r="C143" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Tamy Naves e Cunha</v>
-      </c>
+      <c r="C143" s="1"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -2808,10 +2521,7 @@
       <c r="B144" t="s">
         <v>173</v>
       </c>
-      <c r="C144" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Tânia Cond.</v>
-      </c>
+      <c r="C144" s="1"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -2820,10 +2530,7 @@
       <c r="B145" t="s">
         <v>173</v>
       </c>
-      <c r="C145" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Tarsila</v>
-      </c>
+      <c r="C145" s="1"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -2832,10 +2539,7 @@
       <c r="B146" t="s">
         <v>173</v>
       </c>
-      <c r="C146" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Tati Fisioterapeuta</v>
-      </c>
+      <c r="C146" s="1"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -2862,10 +2566,7 @@
       <c r="B149" t="s">
         <v>173</v>
       </c>
-      <c r="C149" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Thiane  Xavier</v>
-      </c>
+      <c r="C149" s="1"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -2874,10 +2575,7 @@
       <c r="B150" t="s">
         <v>173</v>
       </c>
-      <c r="C150" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Thiara Bagdeve</v>
-      </c>
+      <c r="C150" s="1"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -2886,10 +2584,7 @@
       <c r="B151" t="s">
         <v>173</v>
       </c>
-      <c r="C151" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Tio Jonga</v>
-      </c>
+      <c r="C151" s="1"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -2898,10 +2593,7 @@
       <c r="B152" t="s">
         <v>173</v>
       </c>
-      <c r="C152" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Vanessa</v>
-      </c>
+      <c r="C152" s="1"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -2928,10 +2620,7 @@
       <c r="B155" t="s">
         <v>173</v>
       </c>
-      <c r="C155" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Vania Rehm</v>
-      </c>
+      <c r="C155" s="1"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -2940,10 +2629,7 @@
       <c r="B156" t="s">
         <v>173</v>
       </c>
-      <c r="C156" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Vanize</v>
-      </c>
+      <c r="C156" s="1"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -2961,10 +2647,7 @@
       <c r="B158" t="s">
         <v>173</v>
       </c>
-      <c r="C158" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Vera Lucia</v>
-      </c>
+      <c r="C158" s="1"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -2982,10 +2665,7 @@
       <c r="B160" t="s">
         <v>173</v>
       </c>
-      <c r="C160" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Vinicius</v>
-      </c>
+      <c r="C160" s="1"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -2994,10 +2674,7 @@
       <c r="B161" t="s">
         <v>173</v>
       </c>
-      <c r="C161" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Yasmim</v>
-      </c>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -3015,10 +2692,7 @@
       <c r="B163" t="s">
         <v>173</v>
       </c>
-      <c r="C163" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Mailin</v>
-      </c>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -3027,10 +2701,7 @@
       <c r="B164" t="s">
         <v>173</v>
       </c>
-      <c r="C164" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Erlon</v>
-      </c>
+      <c r="C164" s="1"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -3048,10 +2719,7 @@
       <c r="B166" t="s">
         <v>173</v>
       </c>
-      <c r="C166" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Zilca</v>
-      </c>
+      <c r="C166" s="1"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -3069,10 +2737,7 @@
       <c r="B168" t="s">
         <v>173</v>
       </c>
-      <c r="C168" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mensagem de Teste para Judi Correia Viana</v>
-      </c>
+      <c r="C168" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C168" xr:uid="{AC9B059C-E4AB-41A3-8E98-2E0E4A5A6054}"/>

--- a/Mockup.xlsx
+++ b/Mockup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubPersonal\SendWhatsAppMessages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38EA6FF-A8EB-4496-816A-CDEC488DA219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E1A6DD-1044-4E94-85E0-552BE5087E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,20 +655,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,11 +1034,11 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
@@ -1046,18 +1046,18 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>180</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -1066,42 +1066,42 @@
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="J4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1114,9 +1114,9 @@
       <c r="D8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1129,32 +1129,32 @@
       <c r="D9" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>181</v>
@@ -1164,11 +1164,11 @@
       <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
@@ -1184,16 +1184,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="G3:G10"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1204,7 +1204,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B059C-E4AB-41A3-8E98-2E0E4A5A6054}">
   <dimension ref="A1:C168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1244,7 +1246,7 @@
         <v>173</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C66" si="0">"Mensagem de Teste para "&amp;A3</f>
+        <f t="shared" ref="C3:C31" si="0">"Mensagem de Teste para "&amp;A3</f>
         <v>Mensagem de Teste para Pablo</v>
       </c>
     </row>
@@ -1297,7 +1299,10 @@
       <c r="B8" t="s">
         <v>173</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="str">
+        <f>"Mensagem de Teste para "&amp;A8</f>
+        <v>Mensagem de Teste para Ana Luisa</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1306,7 +1311,10 @@
       <c r="B9" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Ana Mercia</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1315,7 +1323,10 @@
       <c r="B10" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Ana Oliva</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1342,7 +1353,10 @@
       <c r="B13" t="s">
         <v>173</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Anailza Meireles</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1351,7 +1365,10 @@
       <c r="B14" t="s">
         <v>173</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="str">
+        <f>"Mensagem de Teste para "&amp;A14</f>
+        <v>Mensagem de Teste para Anamaria Romio</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1360,7 +1377,10 @@
       <c r="B15" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Andre</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1369,7 +1389,10 @@
       <c r="B16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para André Coêlho</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1396,7 +1419,10 @@
       <c r="B19" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Aninha</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1405,7 +1431,10 @@
       <c r="B20" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="str">
+        <f>"Mensagem de Teste para "&amp;A20</f>
+        <v>Mensagem de Teste para Aninha Junqueira</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1414,7 +1443,10 @@
       <c r="B21" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Ayna</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1423,7 +1455,10 @@
       <c r="B22" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Beatriz Bea</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1450,7 +1485,10 @@
       <c r="B25" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">Mensagem de Teste para Cacau </v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1459,7 +1497,10 @@
       <c r="B26" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="str">
+        <f>"Mensagem de Teste para "&amp;A26</f>
+        <v xml:space="preserve">Mensagem de Teste para Carla Galo </v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -1468,7 +1509,10 @@
       <c r="B27" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Carol Prima De Jana</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -1477,7 +1521,10 @@
       <c r="B28" t="s">
         <v>173</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Casa Mainha</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -1504,7 +1551,10 @@
       <c r="B31" t="s">
         <v>173</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Mensagem de Teste para Cidinho</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
